--- a/subjects/resources/1/it_phys/LR1.xlsx
+++ b/subjects/resources/1/it_phys/LR1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\ИТ в физике\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna_Banana\Desktop\Учёба\4 курс\Портфолио\annavolkova1.github.io\subjects\resources\1\it_phys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Траектория движения Марса" sheetId="1" r:id="rId1"/>
     <sheet name="Аналогичная задача (циклоида) " sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,7 +107,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1627,6 +1627,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76A8-48D5-8F61-48DD8D606636}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1743,9 +1748,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2707,6 +2712,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3034-40E2-9B77-61351DF18095}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4005,9 +4015,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4045,7 +4055,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4117,7 +4127,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
